--- a/data.xlsx
+++ b/data.xlsx
@@ -478,10 +478,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="18.12" customWidth="1" style="5" min="10" max="10"/>
   </cols>
@@ -601,31 +601,31 @@
         <v>44354</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>490119147</v>
+        <v>488925190</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>19.71</v>
+        <v>19.66</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>4165</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>82100</v>
+        <v>81900</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>15611377</v>
+        <v>16227064</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>1281049</v>
+        <v>1331474</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>82800</v>
@@ -663,10 +663,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="6">
       <c r="A1" s="7" t="inlineStr">
@@ -783,31 +783,31 @@
         <v>44354</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>56147932</v>
+        <v>55926004</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>184.13</v>
+        <v>183.41</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>687</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>126500</v>
+        <v>126000</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>1785050</v>
+        <v>1886017</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>224676</v>
+        <v>237398</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>127000</v>
@@ -846,10 +846,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="6">
       <c r="A1" s="7" t="inlineStr">
@@ -966,31 +966,31 @@
         <v>44354</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>94276306</v>
+        <v>93548303</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>18.49</v>
+        <v>18.35</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>7002</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>129500</v>
+        <v>128500</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>2453179</v>
+        <v>2555080</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>316392</v>
+        <v>329487</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>130000</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="M3" s="5" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>보합</t>
         </is>
       </c>
     </row>
@@ -1029,10 +1029,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="6">
       <c r="A1" s="7" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
+    <row r="3">
       <c r="A3" s="9" t="n">
         <v>44354</v>
       </c>
@@ -1170,10 +1170,10 @@
         <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>366141</v>
+        <v>392491</v>
       </c>
       <c r="J3" t="n">
-        <v>132030</v>
+        <v>141581</v>
       </c>
       <c r="K3" t="n">
         <v>364000</v>
@@ -1187,7 +1187,6 @@
         </is>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="samsung" sheetId="1" state="visible" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -87,9 +87,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -477,163 +474,163 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="18.12" customWidth="1" style="5" min="10" max="10"/>
+    <col width="18.12" customWidth="1" style="4" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>marketSum(x1 million)</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>EPS</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>NOW</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>DIFF</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>RATE</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>AMOUNT(x1 million)</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>RISEFALL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="8" t="n">
+    <row r="2" ht="12.8" customHeight="1" s="5">
+      <c r="A2" s="7" t="n">
         <v>44353</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>490716125</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <v>19.74</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="4" t="n">
         <v>4165</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>2.1</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>82200</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>-600</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="4" t="n">
         <v>-0.72</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="4" t="n">
         <v>18055979</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="4" t="n">
         <v>1483165</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>82700</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="4" t="n">
         <v>81500</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>하락</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
-      <c r="A3" s="9" t="n">
+    <row r="3">
+      <c r="A3" s="8" t="n">
         <v>44354</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>488925190</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>19.66</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="4" t="n">
         <v>4165</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>2.09</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>81900</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>-300</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="4" t="n">
         <v>-0.36</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="4" t="n">
         <v>16227064</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="4" t="n">
         <v>1331474</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="4" t="n">
         <v>82800</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="4" t="n">
         <v>81600</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>하락</t>
         </is>
@@ -663,165 +660,164 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>marketSum(x1 million)</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>EPS</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>NOW</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>DIFF</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>RATE</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>AMOUNT(x1 million)</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>RISEFALL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="8" t="n">
+    <row r="2" ht="12.8" customHeight="1" s="5">
+      <c r="A2" s="7" t="n">
         <v>44353</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>55038289</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <v>180.49</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="4" t="n">
         <v>687</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>124000</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>-2500</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="4" t="n">
         <v>-1.98</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="4" t="n">
         <v>2655674</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="4" t="n">
         <v>329517</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>126000</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="4" t="n">
         <v>123000</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>하락</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
-      <c r="A3" s="9" t="n">
+    <row r="3">
+      <c r="A3" s="8" t="n">
         <v>44354</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>55926004</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>183.41</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="4" t="n">
         <v>687</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>8.17</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>126000</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="4" t="n">
         <v>1.61</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="4" t="n">
         <v>1886017</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="4" t="n">
         <v>237398</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="4" t="n">
         <v>127000</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="4" t="n">
         <v>125000</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -846,165 +842,164 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>marketSum(x1 million)</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>EPS</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>NOW</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>DIFF</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>RATE</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>AMOUNT(x1 million)</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>RISEFALL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="8" t="n">
+    <row r="2" ht="12.8" customHeight="1" s="5">
+      <c r="A2" s="7" t="n">
         <v>44353</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>93548303</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <v>18.35</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="4" t="n">
         <v>7002</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>1.68</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>128500</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>-500</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="4" t="n">
         <v>-0.39</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="4" t="n">
         <v>2551057</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="4" t="n">
         <v>325602</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>129000</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="4" t="n">
         <v>126500</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>하락</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="6">
-      <c r="A3" s="9" t="n">
+    <row r="3">
+      <c r="A3" s="8" t="n">
         <v>44354</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>93548303</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <v>18.35</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="4" t="n">
         <v>7002</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>1.68</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>128500</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="4" t="n">
         <v>2555080</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="4" t="n">
         <v>329487</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="4" t="n">
         <v>130000</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="4" t="n">
         <v>128000</v>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>보합</t>
         </is>
       </c>
     </row>
-    <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1028,124 +1023,124 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>DATE</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>marketSum(x1 million)</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>EPS</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>PBR</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>NOW</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>DIFF</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>RATE</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>AMOUNT(x1 million)</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>LOW</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>RISEFALL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="6">
-      <c r="A2" s="8" t="n">
+    <row r="2" ht="12.8" customHeight="1" s="5">
+      <c r="A2" s="7" t="n">
         <v>44353</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>58642032</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <v>3.64</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>2.39</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>357000</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>-5000</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="4" t="n">
         <v>-1.38</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="4" t="n">
         <v>431949</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="4" t="n">
         <v>153885</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>360500</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="4" t="n">
         <v>355000</v>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>하락</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="8" t="n">
         <v>44354</v>
       </c>
       <c r="B3" t="n">

--- a/data.xlsx
+++ b/data.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -633,6 +633,92 @@
       <c r="M3" s="4" t="inlineStr">
         <is>
           <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>488925190</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>81900</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>12690994</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1041990</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>82600</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>81800</v>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>보합</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>483552386</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>81000</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>13809157</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1119472</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>81700</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>80700</v>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>보합</t>
         </is>
       </c>
     </row>
@@ -657,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -813,6 +899,92 @@
         <v>125000</v>
       </c>
       <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>57035646</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>187.05</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>128500</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2235730</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>285973</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>128500</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>126500</v>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>60152458</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>197.23</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>135500</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>3635863</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>489129</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>136500</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>132000</v>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -839,7 +1011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -997,6 +1169,92 @@
       <c r="M3" s="4" t="inlineStr">
         <is>
           <t>보합</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>92820301</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>127500</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>4171483</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>527449</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>127500</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>125000</v>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>93184302</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>128000</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4535613</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>574198</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>128500</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>124000</v>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
@@ -1143,42 +1401,128 @@
       <c r="A3" s="8" t="n">
         <v>44354</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4" t="n">
         <v>59545480</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>3.69</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>2.43</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4" t="n">
         <v>362500</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4" t="n">
         <v>5500</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4" t="n">
         <v>1.54</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4" t="n">
         <v>392491</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4" t="n">
         <v>141581</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4" t="n">
         <v>364000</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4" t="n">
         <v>357000</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>59545480</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>362500</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>370106</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>134568</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>365500</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>361500</v>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>보합</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="n">
+        <v>44358</v>
+      </c>
+      <c r="B5" t="n">
+        <v>61188114</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>372500</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="I5" t="n">
+        <v>654812</v>
+      </c>
+      <c r="J5" t="n">
+        <v>244307</v>
+      </c>
+      <c r="K5" t="n">
+        <v>378500</v>
+      </c>
+      <c r="L5" t="n">
+        <v>367500</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>
